--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt1-Fzd9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt1-Fzd9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Fzd9</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Fzd9</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H2">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I2">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.514018</v>
+        <v>0.6436386666666666</v>
       </c>
       <c r="N2">
-        <v>1.542054</v>
+        <v>1.930916</v>
       </c>
       <c r="O2">
-        <v>0.2743122022496015</v>
+        <v>0.3148741541159968</v>
       </c>
       <c r="P2">
-        <v>0.2743122022496015</v>
+        <v>0.3148741541159968</v>
       </c>
       <c r="Q2">
-        <v>0.04816400061800001</v>
+        <v>0.02516927551377778</v>
       </c>
       <c r="R2">
-        <v>0.4334760055620001</v>
+        <v>0.226523479624</v>
       </c>
       <c r="S2">
-        <v>0.1935408955666293</v>
+        <v>0.3148741541159968</v>
       </c>
       <c r="T2">
-        <v>0.1935408955666293</v>
+        <v>0.3148741541159968</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H3">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I3">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.634041</v>
       </c>
       <c r="O3">
-        <v>0.2906755439667749</v>
+        <v>0.2664627967585631</v>
       </c>
       <c r="P3">
-        <v>0.2906755439667749</v>
+        <v>0.266462796758563</v>
       </c>
       <c r="Q3">
-        <v>0.05103709191366668</v>
+        <v>0.02129954287488889</v>
       </c>
       <c r="R3">
-        <v>0.4593338272230001</v>
+        <v>0.191695885874</v>
       </c>
       <c r="S3">
-        <v>0.2050860466187244</v>
+        <v>0.2664627967585631</v>
       </c>
       <c r="T3">
-        <v>0.2050860466187244</v>
+        <v>0.266462796758563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H4">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I4">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1138553333333333</v>
+        <v>0.1891833333333333</v>
       </c>
       <c r="N4">
-        <v>0.341566</v>
+        <v>0.56755</v>
       </c>
       <c r="O4">
-        <v>0.06076033762344728</v>
+        <v>0.09255028502976516</v>
       </c>
       <c r="P4">
-        <v>0.06076033762344728</v>
+        <v>0.09255028502976514</v>
       </c>
       <c r="Q4">
-        <v>0.01066835858866667</v>
+        <v>0.00739795118888889</v>
       </c>
       <c r="R4">
-        <v>0.09601522729800001</v>
+        <v>0.0665815607</v>
       </c>
       <c r="S4">
-        <v>0.04286943877134737</v>
+        <v>0.09255028502976516</v>
       </c>
       <c r="T4">
-        <v>0.04286943877134736</v>
+        <v>0.09255028502976514</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H5">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I5">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5065973333333332</v>
+        <v>0.3089366666666667</v>
       </c>
       <c r="N5">
-        <v>1.519792</v>
+        <v>0.92681</v>
       </c>
       <c r="O5">
-        <v>0.2703520696949175</v>
+        <v>0.1511347540629665</v>
       </c>
       <c r="P5">
-        <v>0.2703520696949175</v>
+        <v>0.1511347540629665</v>
       </c>
       <c r="Q5">
-        <v>0.04746867673066667</v>
+        <v>0.01208086537111111</v>
       </c>
       <c r="R5">
-        <v>0.427218090576</v>
+        <v>0.10872778834</v>
       </c>
       <c r="S5">
-        <v>0.190746825179273</v>
+        <v>0.1511347540629665</v>
       </c>
       <c r="T5">
-        <v>0.1907468251792729</v>
+        <v>0.1511347540629665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H6">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I6">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04771466666666666</v>
+        <v>0.1497823333333334</v>
       </c>
       <c r="N6">
-        <v>0.143144</v>
+        <v>0.4493470000000001</v>
       </c>
       <c r="O6">
-        <v>0.02546353492083737</v>
+        <v>0.07327494128670582</v>
       </c>
       <c r="P6">
-        <v>0.02546353492083737</v>
+        <v>0.07327494128670581</v>
       </c>
       <c r="Q6">
-        <v>0.004470911981333334</v>
+        <v>0.005857188217555557</v>
       </c>
       <c r="R6">
-        <v>0.040238207832</v>
+        <v>0.05271469395800001</v>
       </c>
       <c r="S6">
-        <v>0.01796578975508612</v>
+        <v>0.07327494128670582</v>
       </c>
       <c r="T6">
-        <v>0.01796578975508612</v>
+        <v>0.07327494128670581</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H7">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I7">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1469773333333333</v>
+        <v>0.2078926666666666</v>
       </c>
       <c r="N7">
-        <v>0.440932</v>
+        <v>0.623678</v>
       </c>
       <c r="O7">
-        <v>0.07843631154442145</v>
+        <v>0.1017030687460028</v>
       </c>
       <c r="P7">
-        <v>0.07843631154442146</v>
+        <v>0.1017030687460028</v>
       </c>
       <c r="Q7">
-        <v>0.01377192311066667</v>
+        <v>0.008129573432444444</v>
       </c>
       <c r="R7">
-        <v>0.123947307996</v>
+        <v>0.073166160892</v>
       </c>
       <c r="S7">
-        <v>0.05534071709809447</v>
+        <v>0.1017030687460028</v>
       </c>
       <c r="T7">
-        <v>0.05534071709809447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.117314</v>
-      </c>
-      <c r="I8">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J8">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.514018</v>
-      </c>
-      <c r="N8">
-        <v>1.542054</v>
-      </c>
-      <c r="O8">
-        <v>0.2743122022496015</v>
-      </c>
-      <c r="P8">
-        <v>0.2743122022496015</v>
-      </c>
-      <c r="Q8">
-        <v>0.02010050255066667</v>
-      </c>
-      <c r="R8">
-        <v>0.180904522956</v>
-      </c>
-      <c r="S8">
-        <v>0.08077130668297224</v>
-      </c>
-      <c r="T8">
-        <v>0.08077130668297224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.117314</v>
-      </c>
-      <c r="I9">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J9">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.5446803333333333</v>
-      </c>
-      <c r="N9">
-        <v>1.634041</v>
-      </c>
-      <c r="O9">
-        <v>0.2906755439667749</v>
-      </c>
-      <c r="P9">
-        <v>0.2906755439667749</v>
-      </c>
-      <c r="Q9">
-        <v>0.02129954287488889</v>
-      </c>
-      <c r="R9">
-        <v>0.191695885874</v>
-      </c>
-      <c r="S9">
-        <v>0.08558949734805048</v>
-      </c>
-      <c r="T9">
-        <v>0.08558949734805049</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.117314</v>
-      </c>
-      <c r="I10">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J10">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.1138553333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.341566</v>
-      </c>
-      <c r="O10">
-        <v>0.06076033762344728</v>
-      </c>
-      <c r="P10">
-        <v>0.06076033762344728</v>
-      </c>
-      <c r="Q10">
-        <v>0.004452274858222222</v>
-      </c>
-      <c r="R10">
-        <v>0.040070473724</v>
-      </c>
-      <c r="S10">
-        <v>0.01789089885209992</v>
-      </c>
-      <c r="T10">
-        <v>0.01789089885209992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.117314</v>
-      </c>
-      <c r="I11">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J11">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.5065973333333332</v>
-      </c>
-      <c r="N11">
-        <v>1.519792</v>
-      </c>
-      <c r="O11">
-        <v>0.2703520696949175</v>
-      </c>
-      <c r="P11">
-        <v>0.2703520696949175</v>
-      </c>
-      <c r="Q11">
-        <v>0.01981031985422222</v>
-      </c>
-      <c r="R11">
-        <v>0.178292878688</v>
-      </c>
-      <c r="S11">
-        <v>0.07960524451564453</v>
-      </c>
-      <c r="T11">
-        <v>0.07960524451564453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.117314</v>
-      </c>
-      <c r="I12">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J12">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.04771466666666666</v>
-      </c>
-      <c r="N12">
-        <v>0.143144</v>
-      </c>
-      <c r="O12">
-        <v>0.02546353492083737</v>
-      </c>
-      <c r="P12">
-        <v>0.02546353492083737</v>
-      </c>
-      <c r="Q12">
-        <v>0.001865866135111111</v>
-      </c>
-      <c r="R12">
-        <v>0.016792795216</v>
-      </c>
-      <c r="S12">
-        <v>0.007497745165751249</v>
-      </c>
-      <c r="T12">
-        <v>0.00749774516575125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.117314</v>
-      </c>
-      <c r="I13">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J13">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.1469773333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.440932</v>
-      </c>
-      <c r="O13">
-        <v>0.07843631154442145</v>
-      </c>
-      <c r="P13">
-        <v>0.07843631154442146</v>
-      </c>
-      <c r="Q13">
-        <v>0.005747499627555556</v>
-      </c>
-      <c r="R13">
-        <v>0.05172749664800001</v>
-      </c>
-      <c r="S13">
-        <v>0.02309559444632698</v>
-      </c>
-      <c r="T13">
-        <v>0.02309559444632699</v>
+        <v>0.1017030687460028</v>
       </c>
     </row>
   </sheetData>
